--- a/500all/speech_level/speeches_CHRG-114hhrg94224.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94224.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="297">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you very much, Mr. Chairman.    Secretary Carter, Chairman Dempsey, thank you both for being here today.    I want to first send our best wishes to the ranking member, Adam Smith. We all know that he has been through a difficult time, and we wish him a quick and a speedy recovery.    I want to ask unanimous consent that we put his remarks and his opening statement into the record.    [The prepared statement of Mr. Smith can be found in the Appendix on page 63.]    The Chairman. Without objection.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary Carter. Thank you very much, Chairman Thornberry. Thank you, Congresswoman Davis, thank you also.    And all the members of the committee, thank you for having me here today. It is a pleasure to be with you once again.    I have had the opportunity to speak with many of you before, but this is my first time testifying as the Secretary of Defense. And I know that all of you, all of you on the committee, including the 23 veterans on this committee, share the same devotion that I do to what is the finest fighting force the world has ever known. And to the defense of our great country. And I thank you for that. And I hope that my tenure as Secretary of Defense will be marked by partnership with you on their behalf.    I am here to present the President's budget for the Department of Defense for this year, fiscal year 2016, and I strongly support the President in requesting a defense budget above the artificial caps of the Budget Control Act, that is, above so-called sequester levels, next year, and in the years thereafter.    I also share the President's desire to find a way forward that upholds the fundamental principles behind the Bipartisan Budget Act of 2013. And I support his commitment to vetoing any bill that locks in sequestration, because to do otherwise would be both unsafe and wasteful.    The administration is therefore proposing to increase the defense budget in line with the projections submitted to Congress last year, halting the decline in defense spending imposed by the Budget Control Act, while giving us the resources we need to execute our Nation's defense strategy.    As the chairman noted, strategy comes first. And that is the appropriate way to think about the budget.    But, and I want to be very clear about this, under sequestration, which is set to return in 197 days, our Nation will be less secure.    And Mr. Chairman, as you and your colleagues have said, sequestration threatens our military's readiness. It threatens the size of our warfighting forces, the capabilities of our air and naval fleets, and ultimately, the lives of our men and women in uniform. And the Joint Chiefs have said the same.    And the great tragedy is that this corrosive damage to our national security is not a result of objective factors, logic, reason. Instead, sequester is purely the fallout of political gridlock. Its purpose was to compel prudent compromise on our long-term fiscal challenges. A compromise that never came.    And this has been compounded in recent years, because the Defense Department has suffered a double whammy. The worst of both worlds, that has coupled mindless sequestration with constraints on our ability to reform. We need your help with both.    And I know that Chairman Thornberry, Ranking Member Smith, and others on this committee, are as dedicated to reform as I am. And I appreciate the--your dedication to it and the opportunity to work with you, because we at the Pentagon can and we must do better at getting value for the defense dollar. There are significant savings to be found across DOD, and we are committed to pursuing them.    But at the same time, I have to note that in the past several years, painful but necessary reforms proposed by DOD, reforms involving elimination of overhead and unneeded infrastructure, retirement of older systems, and reasonable adjustments in compensation have been denied by Congress at the same time that sequestration has loomed.    If confronted with sequestration-level budgets and continued obstacles to reform, I do not believe that we can simply keep making incremental cuts. We would have to change the shape and not just the size of our military, significantly impacting parts of our defense strategy. We cannot meet sequester with further half measures.    As Secretary of Defense, I will not send troops into a fight with outdated equipment, inadequate readiness, or ineffective doctrine. But everything else is on the table, including parts of our budget that have long been considered inviolate.    This may lead to decisions that no Americans, including Members of Congress, want us to make.    And, now, I am not afraid to ask the difficult questions. But if we are stuck with sequestration's budget cuts over the long term, our entire Nation will have to live with the answers. So instead of sequestration, I urge you to embrace the alternative--building the force of the future. Powerful enough to underwrite our strategy. Equipped with boldly new technology as the chairman stressed. Leading in domains like cyber and space. Being lean and efficient throughout the enterprise. Showing resolve to friends and potential foes alike. And attracting and retaining the best Americans to our mission. Americans like the elite cyber-warriors I met last week when I visited our Cyber Command. That is the alternative that we can have without sequestration.    So, Mr. Chairman, the world in 2014 was more complicated than anyone could have predicted. Given today's security environment, the President's proposed increase in defense spending over last year's budget is responsible, prudent, and essential for providing our troops what they need and what they fully deserve.    Thank you, and I look forward to your questions.    [The prepared statement of Secretary Carter can be found in the Appendix on page 64.]    The Chairman. Thank you, sir.    General Dempsey, I am not quite ready to let you go yet, so I am not gonna talk about this being one of your last hearings. But thank you for being here, and please make any oral comments you would like to make.    General Dempsey. Thank you, Chairman, Congresswoman Davis, distinguished members of the committee. I appreciate the opportunity to provide you an update on our Armed Forces and to discuss the defense budget for 2016.    And I will add, it has been a rare privilege to have represented the Armed Forces of the United States, the men and women who serve around the world, before this committee to live up to our Article I, Section 8 responsibility together. And so, if this is my last hearing, I thank you for the opportunity, and if it is not, until we meet again.    I would ask you, Chairman, to submit my written statement for the record, and I will defer the many--I will defer mention in my opening statement of the many security challenges we face because I am quite confident they will be addressed in questions.    But I will say the global security environment is as uncertain as I have seen in my 40 years of service. And, we are at a point where our national aspirations are at risk of exceeding our available resources.    We have heard the Congress loud and clear as it has challenged us to become more efficient and to determine the minimum essential requirements we need to do what the Nation asks us to do. And PB16 [President's budget for fiscal year 2016] is actually that answer.    In my judgment this budget represents a responsible combination of capability, capacity, and readiness. It is what we need to remain at the bottom edge of manageable risk against our national security strategy. There is no slack.    I have been here for 4 years now, and we have watched our budget authority decline. I am reporting to you today there is no slack, no margin left for error, nor for response to strategic surprise.    Funding lower than PB16 and a lack of flexibility to make the internal reforms that we need to make will put us in a situation where we will have to adjust our national security strategy. That doesn't mean it disappears in its entirety, but we will have to make some adjustments to the way we do business.    You may decide that is a good thing. I will certainly be willing to have that conversation with you.    For the past 25 years, the United States military has secured the global commons. We have deterred adversaries, we have reassured our allies, and we have responded to crises and to conflict principally by maintaining our presence abroad. It has been our strategy to shape the international environment by our forward presence and by building relationships with regional partners.    In general terms, one third of our force is forward-deployed, one third has just returned, and the other third is preparing to go.    Of necessity, even at that, there have been certain capabilities who actually operate half the time deployed and half the time back at home. And this, as you know, puts a significant strain on the men and women and their families who serve in those particular specialties.    Sequestration will fundamentally and significantly change the way we deploy the force and the way we shape the security environment. We will be, at the end of the day, if sequestration is imposed, 20 percent smaller, and our forward presence will be reduced by more than a third.    We will have less influence, and we will be less responsive. Conflict will take longer to resolve and will create more casualties and cost more. In an age when we are less certain about what will happen next, but I think we would agree, quite certain that it will happen more quickly, we will be further away and less ready than we need to be. Simply stated, sequestration will result in a dramatic change in how we protect our Nation and how we promote our national security interests.    Mr. Chairman, members of this committee, our men and women in uniform are performing around the globe with extraordinary courage, character, and professionalism. We owe them and their families clarity and, importantly, predictability on everything from policy to compensation, health care, equipment, training, and readiness.    Settling down uncertainty in our decision-making processes and getting us out of the cycle that we have been in, which has been one year at a time, will help us keep the right people, which, after all, is our decisive edge as a nation in our All-Volunteer Force, and we will be able to maintain the military that the American people deserve and, frankly, expect.    I am grateful for the continued support to our men in uniform--men and women in uniform from this committee and from the Congress of the United States, and I look forward to your questions.    [The prepared statement of General Dempsey can be found in the Appendix on page 84.]    The Chairman. Thank you, sir.    I might also note that we have Mr. Michael McCord, the Comptroller of the Department, who is available with us to answer questions.    And Mr. McCord, I might just warn you that audit came up several times yesterday with the service chiefs, and if somebody else doesn't ask about it, I am going to at the end, because there is concern that some of the defense-wide agencies are going to be the hold-up rather than the services. And we will get into that as appropriate.    Mr. Secretary, I very much appreciate your willingness to work with us and the Senate on various reform issues. I think you make excellent points about the need to find greater efficiency in the Department.    And again, thinking back to what you wrote 15 years ago, as the chairman just said, our security environment is incredibly more complicated than we could have imagined in the year 2000 when you wrote those words.    And so it seems to me that even more than efficiency, some sort of reform, and especially reform in how we acquire goods and services, is needed to make the Department more agile, because there is no way we are going to predict what is happening. And if we--if it takes us 20 years to field a new system, there is no way we will be up with technology or meeting the threat.    So the need for agility is even a higher priority, in my mind, than the need for efficiency.    Do you have any comments about how that interplays?</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you.    And, General Dempsey, thank you for your service.    And to Secretary Carter, welcome to this hearing today and your new leadership of our Nation and our military. And I want to thank you.    I would like to start with an article that I read back in December this year, and then get to a question. The article is titled ``Down the Opium Rat Hole.'' If you have spent 13 years pounding money down a rat hole with little to show for it, you might wake up one morning and say, ``Hey, I am going to stop pounding money down the rat hole.''    Unfortunately, the United States Government does not think that way. And when that rat hole is Afghanistan, the billions are essentially without end.    Mr. Secretary, when I listen to all the threats to a strong military, and I have Camp Lejeune down in my district and Cherry Point Marine Air Station. And I think about all the problems we are faced with, it brings me to this question: We have 9 years of an obligation, an agreement, that was not voted on by the Congress and of course the President did not have to bring it to the Congress, I understand that, so I am not being critical, but here we are in a almost desperate situation to fund our military so we will have an adequate and strong military, and then you read articles like this, and there is one more that came out this week that says, this is from John Sopko, by the way, ``Afghanistan cannot manage billions in aid, U.S. inspector finds.''    There are people on this committee in both parties, and we have met unofficial I with Mr. Sopko for 2 years and listened to him, and I am going to ask you and Mr. McCord how in the world can we, for 9 more years, continue to spend millions and billions of dollars in a country that we have very little accountability?    And we had General Campbell here last week, and I was very impressed with him. Let me make that clear. But the point is that we will continue to put money down the rat hole and never say that it is time to stop putting money in the rat hole.    Why in the world can't an administration, and I would say this if you were Secretary of Defense with George Bush or the next President, whomever it might be, why can't people like yourself, sir, be honest with the American people who pay our salaries, who pay for the military, and say, ``You know what? We need to rethink where we are. We need to have a benchmark. We need to say in 3 years, if this has not been accomplished, and we have not reduced the waste of money, then we might need to change our policy and start pulling out''?    I want to ask you, sir, with Mr. McCord there, are you going to bring in John Sopko and these other people to tell you about the absolutely waste of money in Afghanistan that is taking away from us rebuilding our military?</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you, Mr. Chairman.    Secretary Carter and General Dempsey, thank you for coming today.    Secretary Carter, it was a pleasure working with you in the past and I am glad to have you back. As I mentioned in the service chiefs and secretaries hearing yesterday, I appreciate your sharing the dangers of sequestration. It is a short-sighted policy that undermines our Nation's ability to project power, work with our friends and allies, and protect our citizens, and I hope that our Congress can show the courage to repeal this bill.    Now while our Nation faces challenges across the globe we have made strategic choices in developing a focus in the Asia-Pacific region. Mr. Secretary, it is my understanding that in many areas such as infrastructure, maintenance, when we take cuts today we end up paying far more in the future.    Can you talk about areas where we would likely see increased future cost, if sequestration cuts funding today?    And if you could, make your answers brief, please.</t>
   </si>
   <si>
@@ -139,9 +127,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes. Thank you, Mr. Chairman.    Chairman Dempsey, we--the country owes you a great deal of gratitude. We thank you for your service, all you have done for this committee and for the country.    Mr. Secretary, we thank you for being here today and it was my full intention to come in here and applaud you and talk about how talented you were, which I believe that to be the case, and realize what a difficult job you have until I heard your opening remarks.    And let me just ask this question, because you heard Chairman Thornberry mention the phrase that if we get the--anything below the President's budget, that we would go below the lower ragged edge of what we need for national defense.    Do you agree with that?</t>
   </si>
   <si>
@@ -217,9 +202,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And welcome, Secretary Carter. It is great to have you, and I look forward to working with you, and have appreciated your insight and knowledge just in the brief testimony you have been able to make today.    And, Chairman Dempsey, it is always great to see you. And, as we may not see you again, I just want to reiterate again how much I have appreciated your always candid, forthcoming testimony before this committee.    And just to address briefly the issue of sequestration, I too share the view you have, Secretary Carter, that we have to deal with it across the board. As we know, how we defend our country does not exist in isolation. I come from a State that is heavily invested in education and it is that educated community that leads so often on developing all the technologies that all the service chiefs have acknowledged are very important to how we move forward in defending our country as we remain very agile.    So, to protect our country as well as we want to, we have to invest in our minds as much as anything else. So it all is all very much linked. And I appreciate your acknowledging of that.    But 2 weeks ago, this committee had the chance to discuss the proposed AUMF [authorization for the use of military force] against ISIL with General Austin and Secretary Wormuth, so I thank you both for your presence here today to continue that discussion.    And at that hearing, I asked General Austin about the complexity of the challenges that the United States has to address to successfully confront ISIL. I liken it to a multidimensional chess game. And nowhere is that more apparent than in Tikrit, where recent news reports detail Iran's involvement in training and equipping Shia militias in support of the Iraqi government efforts to retake that city.    Iraq's engagement, I think, highlights the complexity of the challenge, rooted as it is in a highly complex region, and underscores the need for Congress to weigh in and think through the assistance that we are providing to the Iraqi government as well as other partners.    So with that in mind, Secretary Carter, how does Iran's engagement with the Iraqi government and its military efforts--the Iraqi government military efforts to confront ISIL complicate our efforts to ensure a pluralistic order? As we know, it was the Maliki government's unwillingness to create an inclusive governing structure that created the opening for ISIL. So as the Iraqi government seeks out Iran's help and is receiving it, how do you see it complicating our efforts going forward?    And then, General Dempsey, how does it complicate our military efforts?</t>
   </si>
   <si>
@@ -247,9 +229,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Mr. Chairman.    And thank you for being here today. General Dempsey, your service to our country, we appreciate so much and wish you well in the future.    And Secretary Carter, best wishes for success in your position.    I am very pleased, in a way, to see the concern being expressed about defense sequestration, because many of us have been talking about this for the last 2 years. And we have--and, in particular, General, thank you for pointing out the issue of readiness, putting our troops at risk.    And this needs to be addressed, but it should also be put in the context that actually Bob Woodward, the very respected journalist, in his books, ``The Price of Politics,'' identified that this was the President's policy. And so, I believe that I hope he makes every effort to change that policy because the consequence was revealed yesterday by Secretary James, and that is that we will have the smallest Air Force since it was created in 1947, the smallest Army since 1939, the smallest Navy since 1916.    I believe the American people are at risk and this needs to be addressed. And it should be pointed out, and I don't want to finger point, and we don't need to get to that, but the facts are clear. The House Republicans twice voted to address defense sequestration, but it was never taken up by the former U.S. Senate.    As we look at the world today, I am very concerned. General Jack Keane testified earlier this year about the spread of radical Islam across North Africa, Central Africa, the Middle East, Central Asia. And I am just so concerned that safe havens are being created, which can attack the American people. And in light of that, in fact, Boko Haram last week, Mr. Secretary, indicated that they would be a part of ISIL, Daesh [Arabic acronym for ISIL]. What is our policy to address this particular situation in Central Africa?</t>
   </si>
   <si>
@@ -280,15 +259,9 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    And General Dempsey, I join my colleagues in sending you warm wishes your way and thanking you for your many, many years of serving our great Nation.    Mr. McCord, I would like to chat with you a little bit about the proposed budget that is upcoming. The House Budget Committee chairman has proposed boosting the fiscal year 2016 defense budget with an increase of OCO allocation. Is an OCO dollar just as useful for the Department as a base budget dollar? In other words, should there be limitations on OCO funding that Congress needs to be mindful of?</t>
   </si>
   <si>
-    <t>McCord</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Secretary McCord. Congressman, both dollars are useful to us if they are provided for the purposes for which, you know, they are intended and needed. We don't need $36 billion or $38 billion extra OCO. We need that money in the base budget, but they are both useful to use and both have restrictions in law and in regulation.</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    Mr. Secretary, Mr. Chairman, thank you for being here. Thank you for all your hard and diligent work.    Mr. Secretary, welcome. We are all very pleased and very happy that you are in your position. You do have very difficult times and issues as the chairman was indicating in the world view that we see in front of us.    We need some plain answers and talk on the issue of this budget. Chairman Dempsey, you and I as you were walking in had a brief conversation about this. So let me tell you where we are and then tell you why we need your help.    Right now, the President had submitted a budget that had a base amount of $561 [billion] and our Budget Committee is currently marking up a budget with a base of $523. They are indicating that they want to make up the difference to that jagged edge of the lowered number, as you said, Mr. Chairman, by OCO, so that the aggregate number, as you said, Mr. Chairman, would be somewhere around $613.    You sort of said, however you cobble it together, but how you cobble it together does make a difference. And I would like you guys to help us with this. I have told the Budget Committee that making it up with OCO does not work. Seventy members of the House signed a letter and sent it to the Budget Committee asking to honor the base budget number of $561 that the President asked for.    What I have said to the Budget Committee is that they should ask you guys. So this is my asking you guys; help us.    So Mr. Secretary, you said that, one, it affects because based upon--this is the basis upon which you build your next budget. That is certainly important. But we don't need to hear that it is an issue of ``rather.'' I think there are structural issues, as Ms. Duckworth was going to, that are important that could impede your ability to access those funds.    One, the National Defense Authorization Act isn't marked up until December. Your fiscal year begins in the fall. Tell us why a base of $523 with an OCO of $90-plus billion doesn't work? Or, you are going to be facing that.</t>
   </si>
   <si>
@@ -352,9 +322,6 @@
     <t xml:space="preserve">    Mr. Turner. Thank you.    The Chairman. I would mention to the gentleman, it is going to be before December before we have a defense authorization bill this year. Senator McCain and I are determined to move--I know it is different than we have had in the past, but it is going to move a whole lot quicker.    Mr. O'Rourke.</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    Mr. Secretary, you said in your opening comments that you would never send our men and women into harm's way without the necessary readiness, the necessary equipment, and the necessary doctrine. I think you would also agree that we shouldn't send them in harm's way without the necessary strategy.    I am having a difficult time in light of the 6 months during which we have been at war in Iraq and Syria against ISIS and in light of the President's authorization for the use of military force, or AUMF, that is now before this Congress for consideration.    I am having a very hard time understanding what the strategy is, and I want to make sure that--as my colleagues have said, that we fund our military well beyond the budget caps and sequester levels--I agree with them there--but I think, perhaps more importantly, that we have the necessary strategy in place so that their efforts, those men and women serving this country and our interests overseas are not in vain.    Could you answer the strategy question for me?</t>
   </si>
   <si>
@@ -379,9 +346,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman, and thank you all for being here.    Secretary Carter, I want to start off with a shamelessly parochial issue.    The AMPV [Armored Multi-Purpose Vehicle] program, which I know you are familiar, is replacing the M113 combat vehicle, which is maintained at the Anniston Army Depot. I am very interested in seeing the AMPV maintained at the Anniston Army Depot.    Do you know who is going to make that decision and when about where the source of repair is going to be made?</t>
   </si>
   <si>
@@ -409,9 +373,6 @@
     <t xml:space="preserve">    Mr. Rogers. Thank you very much.    That is all I have, Mr. Chairman.    The Chairman. Thank the gentleman.    Mr. Takai.</t>
   </si>
   <si>
-    <t>Takai</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Takai. I thank you, Mr. Chairman.    And welcome, Mr. Secretary.    And nice to see you again, General. I wanted to ask a little bit about what is happening in Hawaii. There has been a lot of talk regarding the drastic reductions in Army troop levels, which I believe actually is contrary to the Defense Strategic Guidance that called for the rebalance or the shift to the Pacific.    So, Mr. Secretary, does the President's fiscal year 2016 budget request provide you with the capabilities and the resources to conduct a rebalance to the Pacific? And how would drastic reductions in this theater affect this capability?</t>
   </si>
   <si>
@@ -430,9 +391,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wittman. Thank you, Mr. Chairman.    Gentlemen, thank you so much for joining us today, and thank you for your service to our Nation.    We have heard a lot about how we are going to address future challenges in our military. Obviously, a lot on the funding side, but I want to follow up, Secretary Carter, with some of the things you have spoken about about how we can do a better job in the dollars that we get in spending. Especially in making decisions on things like acquisition, big programs, making sure we have efficiency and timeliness in those decisions. That agility, as Admiral Howard spoke about yesterday, is critical.    Give me your perspective on where you believe we are right now with the acquisition process. Should there be greater authorities given throughout the different levels of decision-making in acquisition? And what do we really need to do as far as acquisition and, well, acquisition reform throughout the process?</t>
   </si>
   <si>
@@ -454,9 +412,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman. And thank you, Secretary Carter and General Dempsey.    First, Secretary Carter, congratulations on your recent confirmation.    And General Dempsey, I want to say thank you not only for your generosity of time before this committee but also with new members in general. You have been very, very kind, so thank you.    First, I would like to start, Secretary Carter, in 1915, 100 years ago this year, the Mark V dive helmet, the trademark of diving, was created.    Military divers are located at a number of military installations around the country, including at the Naval Support Activity Center in Panama City, which is in my district. I had the opportunity to visit recently, and it is just phenomenal.    With the 100th year upon us, Mr. Secretary, I would much appreciate if you would support the designation of 2015 as the year of the military diver to honor those who are serving and have served and will serve as military divers for our country.</t>
   </si>
   <si>
@@ -475,9 +430,6 @@
     <t>412283</t>
   </si>
   <si>
-    <t>Duncan Hunter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hunter. Thank you, Mr. Chairman.    Gentlemen, thank you for being here. Mr. Secretary, it is great to see you in your new position.    So three things.    First one is this: When it comes to acquisition reform, one of the best ways to do it, I think, is, instead of doing a process or policy change, which we do every year, part of the--if you can use technology and actually change the system itself.    For instance, you have testing. It takes months to test our systems, whether you are talking F-35 or an Aegis test. It takes forever.    There is now a programmatic line in your budget request that we are going to match and hopefully put more money in. It is a new way to test, where you can test your Aegis cruisers on the spot, literally on the spot as they are out there in the water and see if they are going to work or not.    That has met with fierce resistance, even in SPAWAR [Space and Naval Warfare Systems Command] in San Diego, where they say, ``We have entire departments that are testing departments.'' That is what they do. You have entire departments that spend years and years simply testing. They aren't happy about things like this that really disrupt the system and cause reform just because of the nature of the technology, if that makes sense.    So I would encourage this committee and you to, instead of just doing policy reforms, working within the system and technology to put in systems that reform no matter what. Because people can't stop it, right? If it is faster, it takes fewer people.    There is major pushback, because you have literally tens of thousands of people within DOD and OSD [Office of the Secretary of Defense] who test. That is their job. They don't like it. That is the first thing.    Number two, we talked about ISIS in Syria and Iraq and our coalition partners.    You have Jordan, for instance. Jordan, I have talked to them. I have written the President letters. We have MQ-1s and MQ-9s in warehouses, even if--and we have the Exportable Predator, too, the XP. Even if you would change the ITAR [International Traffic in Arms Regulations] rules and State approves this stuff, it will take a year or two to get these in the hands of the Jordanians.    You have to deal them with the qualitative military edge [QME] issue with Israel, because the Jordanians would then own those aircraft. A fix to this, I think, is taking some of the aircraft that we have now that are in warehouses, letting the Jordanians fly them and basically having the contractor that makes the Predator, have them recover and launch and have them do it.    So then the Jordanians don't own them, there is no QME problem, and they are able to use that now. And they are requesting this now. The king has requested this, his ambassador has requested this, and their military liaisons here in the U.S. have requested this, too.    Just want to run that by you. What do you think?</t>
   </si>
   <si>
@@ -493,9 +445,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And, gentlemen, thank you very much for your service to the country. There is tremendous bipartisan agreement on this committee that we need to move past the sequester. I just came from a Budget Committee hearing where this is being debated. There is a lot of frustration with the way that the budget is being handled at the present.    But the question, therefore, is just how do we get there? How do we figure that out? One question that has been debated much this morning on this committee is is there a role for nondefense spending cut under the Budget Control Act in ensuring our national defense? And, I think, Secretary Carter, you have made your view quite clear on that.    General Dempsey, I was wondering if you could offer your own comments.    General Dempsey. Look, everything we do around the world in terms of security these days are done with other government partners. Whether it is DEA [Drug Enforcement Administration], [Department of] Homeland Security, FBI, CIA, and so, yes, there is a role on the nondefense side for security.</t>
   </si>
   <si>
@@ -517,9 +466,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Thank you, Mr. Chairman.    Thank you both, or all of you being here. I appreciate that, and we all do.    Secretary Carter, as you know, Qatar is an important partner of ours. We have troops stationed there, and they have played a role in the counter-ISIS fight.    However, they are playing both sides. There are a number of U.S.-designated terrorist financiers operating openly in Qatar. The leadership of Hamas, a designated terrorist organization, openly operates there and they have been financing some very bad Islamist extremists.    So my question is, how can the U.S. hold them accountable and how can we make it clear that playing both sides is simply unacceptable?</t>
   </si>
   <si>
@@ -550,9 +496,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman.    Thank you, Mr. Secretary and General Dempsey. Good to see you again.    I wanted to talk a little bit about that--the AUMF that was just discussed in this wide scope that you just mentioned. You know, one of the questions I had was the hostility.    Would the--if the hostility--it doesn't say anything about the termination of hostilities at the 3-year period.    Is it your feeling that hostilities could continue and that we could have actions against ISIL beyond the 3 years as currently written and implemented?</t>
   </si>
   <si>
@@ -586,9 +529,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman.    And Secretary Carter, Chairman Dempsey, thank you for your service and thank you for coming for us today.    You know, the President has said that his goal is to destroy ISIS. He has submitted a proposed AUMF. In the AUMF it says a limitation is no enduring offensive ground combat operations. That suggests no significant boots on the ground, sort of a colloquial expression that we use about that.    So my question to both of you gentlemen is can you give examples of wars America has won with sustained success and peace without substantial ground forces in relation to the foe?</t>
   </si>
   <si>
@@ -640,9 +580,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, Mr. Chairman,    And General and Mr. Secretary.    Pardon my parochialism, I am just going to have to ask kind of a broad question related back to our people in our district, University of Nebraska at Omaha [UNO]. When we went to the--to see--I absolutely agree with you about President Ghani, and there is a lot of hope there, in his ability to start reforms in the armed services, open up discussions with Pakistan which are meaningful, apparently.    It was interesting, when we went in to visit with the President, one of his first comments to me was how is my friend Tom Gouttierre. And Tom, many of you probably know of Tom, but he started the Afghan studies program at UNO 35 years ago, and is a friend of the President's and they communicate. So that was nice to see.    Also, you know, the Peter Kiewit Institute at University of Nebraska at Omaha is doing research into ISIS and has had--in fact had been doing the research prior to June of last year. And the Ebola work done at the University of Nebraska Medical Center, and is pretty significant. And we are very proud of all that.    Having said that, I guess my question is, when I visit those institutions and talk to the principals, it is clear that not just the University of Nebraska, clearly, but all over the country, there are partners at that level who are sophisticated, significant partners in our efforts in the Mideast.    And would you comment on that, on how you foresee those partnerships continuing to develop and evolve and move forward?</t>
   </si>
   <si>
@@ -661,9 +598,6 @@
     <t>412453</t>
   </si>
   <si>
-    <t>Christopher P. Gibson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gibson. Thanks, Mr. Chairman. And greatly appreciate the panelists.    Thank you for your leadership and commitment to our Nation.    General Dempsey, I noted in your opening remarks you laid out a case for continued forward presence, put some passion behind that. Some of us, myself included, have really been arguing for thinking and acting differently, certainly recognizing the need for some forward presence, particularly with naval forces for open sea lanes and access to markets. And then in places like Korea, of course, there is going to be a need for land forces there for the near term, at least.    But that when we rely on this, as we have really have since the end of the Cold War, we end up with free-rider problems, and we end up with friends and allies who don't fully ante up for what they had admitted on paper that they would do, and we end up with some other second-order effects.    I have been arguing for a peace-through-strength approach that really puts reliance on agility, strategic maneuver, and particularly the restoration of the global response force capability, with the idea that--and of course we deal with nation states and we deal with transnational actors, here I am talking about the former, not the latter, you know, this idea of deterrence and deterrence really being defined by capability and will.    And here is where I get to the point on the global response force. Now, we had the service secretaries and the chiefs here yesterday, and they gave a response to this. And so, I am interested in, from the Department standpoint, from the Secretary and from the chief, leadership, as it relates to restoring the global response force and how you see that factoring into our posture going forward.</t>
   </si>
   <si>
@@ -676,9 +610,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman. And I want to thank the Secretary and general for your service and all the witnesses here today.    I think when historians write the book on this administration, one of the overlooked achievements was the New START [Strategic Arms Reduction] treaty, which was ratified on a bipartisan basis. And you know in the wake of it we have heard a lot of testimony at the Seapower Committee about the fact that the triad is going to change as a result of the realignment that the treaty created in terms of the leg of the triad that is going to carry the heaviest burden is the sea-based deterrence, about 70 percent, according to, again, some of the Navy witnesses that we have had here.    In the wake of that, in the aging out of the existing Ohio fleet, Admiral Greenert, Secretary Stackley, yesterday Secretary Mabus, I mean they made it crystal clear that the Ohio replacement program is at the absolute top of the list because the timing, even with the President's robust funding for design work, which again is another reason why we should support that top line.    You know really there is just no margin for delay in terms of making sure that we are going to be able to implement New START. So you know, Mr. Secretary, I was reading your testimony over at the Appropriations Committee and others about, again, we have been hearing about this for years, you know what the impact is going to be on the shipbuilding account.    So last year's defense bill when we created the Sea-based Deterrence Fund, we thought you know really used well-established precedent from the National Sealift Defense Fund, which again was an effort to take pressure off the shipbuilding account for a once in a multi-generation investment missile defense, et cetera.    I was just wondering if you could kind of talk with us a little bit about what your sort of thinking is. Because there is just no question that something is going to give when the resources are needed to build those boats in terms of the shipbuilding account, if it has to all come out of there.</t>
   </si>
   <si>
@@ -691,9 +622,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Well, thank you, Mr. Chairman.    First of all, Secretary Carter, some of us were a little bit surprised at your appointment. And I just have to say to you, it was a pleasant surprise. And I, for one, am very gratified, sir, that you are where you are. I think it is a good thing for the country.</t>
   </si>
   <si>
@@ -721,9 +649,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman.    And to Mr. Carter, and first of all, I want to thank both of you. General Dempsey, I really appreciate your service to our country, and particularly the uniform that you wear, the United States Army. It means a lot to me.    Secretary Carter, first time I get to meet you.    But the question I have, and I guess where I am kind of perplexed, is what is going on within Iraq today, where we have the general of the Quds force leading the charge, basically. And, you know, I get our reluctance to have boots on the ground. Because let me tell you, I mean, my kids have been there. So I don't necessarily want to see them go back.    But the other--on the same token, though, I hate to see that Iran now has taken the lead, and particularly when you go back to the history in Iraq with us recently, in 2011 when I was there, we had five U.S. service members killed the night I was there by an advanced IED [improvised explosive device] supplied--go figure--from Iran. And now we are allowing them to take the lead. And, you know, you remember back, I mean, we had our forces in Iraq at the drawdown. We had American troops being killed and ambushed. And because of the status of forces agreement, particularly as it related to Iraq, they kept us from going and hunting or capturing or killing these guys that were killing our troops.    We knew where they were laying their heads down at night, but the fact was these are the same people now that are taking the lead in Iraq and we think we are going to see a different outcome with the Iranian regime today than what it was then. And the pressure it is going to put on the Iraqi leaders--and Ghani I think is a breath of fresh air, but I don't know how he is going to operate within that when the Iranians are standing there saying, ``Listen, we are giving you back your country.''    How do we deal with that?</t>
   </si>
   <si>
@@ -751,9 +676,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Well, thank you, Mr. Chairman.    Thank you, gentlemen, for being here today.    As I am looking at the AUMF, it says the use of special operations forces to take military action against ISIL leadership--and again, this is a proposed AUMF--does that include capture or is it kill only?</t>
   </si>
   <si>
@@ -814,9 +736,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman.    Gentlemen, thanks for being here.    Mr. Secretary, in follow-up to Representative Wenstrup's question, it just brings back to my mind this issue of GTMO [Guantanamo Bay Naval Station], when we are talking about people taken on the battlefield, people taken for questioning, intelligence gathering, do you support the President's plan?    I just came back from GTMO a couple of weeks ago, carried a lot of legislation since I have been here in a very short amount of time on the issue of GTMO.    Do you support the President's proposal to close GTMO by the end of this year and transfer those terrorists back to this country, to U.S. prisons?</t>
   </si>
   <si>
@@ -904,9 +823,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman.    And gentlemen, the country is in your debt.    General, I have known you a long time and certainly for your service.    And Mr. Secretary, I had not known you as long but thank you for taking the job.    Having said that, this committee, I am a freshman. And before this committee, we have heard the testimonies of General Abizaid. We have heard certainly in conversations with General Conway that I know well and fought with in Fallujah.    And both of them have said that--I will quote General Conway--``there is not a snowball's chance in hell that our operations alone are going to degrade and defeat ISIS.''    And then given the recent success of Iran, certainly they have embedded commanders in their forces, even though it is a modern Shia force, which has great ramifications long term.    And I have always been a fight-or-go-home guy. If we are going to fight, fight to win. I was never a flag officer; I was a deputy acting commander of special [operation] forces in Iraq, and I was a commander at SEAL Team Six. But I have always--in my career I have always looked at protection of our troops and making sure they had the right equipment, the right training, and the right rules of engagement to win decisively on the battle of field.    And having said that, if we are to embed, as Iran is having success to do, and if we are going to look at General Abizaid and General Conway's and some of your senior leadership, then my concern is that if we embed, we don't just embed with just a few, because we have seen what happens should an individual get captured. He is going to die a heinous death in a cage and burned alive.    So embedding is going to take a force package of relative weight and we are going to have to have a MEDEVAC [medical evacuation] because if one of our guys gets hurt, we are going to have to bring him out. And it is going to be at a U.S. facility somewhere close.    And if our guys get pinned down for some reason, that is a QRF [quick reaction force]. So that is American armor, American forces, because we don't want another Somalia or Benghazi.    Then we have to have, you know, a logistics arm to make sure our allies we are fighting with--the Sunnis and the Kurds directly and the centralized government--have the ammunition, food, fuel, everything it takes to win, because now we have committed and embedded.    And my question is, do the current authorization as proposed, does it allow the flexibility for you, should the decision be made to embed the force structure I have laid out? Does that authorization that you are asking--does it include the flexibility to embed that force package to win?</t>
   </si>
   <si>
@@ -919,9 +835,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair, but not least.    I am going to talk about air power a little bit, since it seems like over the last 15 or 20 years, we have diverted kind of a little away from X-Plane technology, put it into a little bit different phase of different exploration.    And now we are in a phase of flying the wings off an aircraft after 40 or 50 years and not going onto the next generation in, it seems to me to be a little quicker phase to stay up with technology.    Everyone has talked about the iPhone here today, and I have a 16-year-old at home that doesn't know anything different than living with the iPhone, even though it has only been out for 8 years.    So in the time--in the 1950s, when we had five or six fighters working through the program and we worked through the Century series and about an 8-year program, now we are looking at fifth-generation fighters that will probably go through 2050 or 2060.    Is that a concern? Is that a concern that we can do something quicker? We always talk about how we acquire things and how we can get through the acquisition phase quicker.    Well, if we could do that with technology, say we could do a sixth generation fighter today, it would be much more advanced than our Raptors in the air.    But how could we do that in a quicker phase of 15- to 20-year period and then fly them for 40 or 50 years?</t>
   </si>
   <si>
@@ -944,9 +857,6 @@
   </si>
   <si>
     <t>412611</t>
-  </si>
-  <si>
-    <t>Martha McSally</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman.    Thank you, Secretary Carter, General Dempsey. I was a masters of public policy graduate, so you were one of my instructors back in 1988 to 1990, so it is good to see you again.</t>
@@ -1393,11 +1303,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1419,11 +1327,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1443,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1469,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1495,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1523,11 +1423,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1547,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1575,11 +1471,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1599,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1627,11 +1519,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1651,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1679,11 +1567,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1705,11 +1591,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1729,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1755,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1781,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1807,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1833,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1859,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1885,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1911,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1937,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1963,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1989,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2015,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2041,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
         <v>41</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2067,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2093,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2119,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2145,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2171,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2197,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2223,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2249,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2275,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2301,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2327,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2353,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2379,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2405,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2431,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2457,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2483,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2509,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2535,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2561,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" t="s">
-        <v>41</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2587,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2613,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2639,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2665,13 +2477,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2691,13 +2501,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
         <v>66</v>
-      </c>
-      <c r="G52" t="s">
-        <v>67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2717,13 +2525,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2743,13 +2549,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2769,13 +2573,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" t="s">
-        <v>67</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2795,13 +2597,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>76</v>
-      </c>
-      <c r="G56" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2821,13 +2621,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2847,13 +2645,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2873,13 +2669,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2899,13 +2693,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2925,13 +2717,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2951,13 +2741,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
-      </c>
-      <c r="G62" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
         <v>77</v>
-      </c>
-      <c r="H62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2977,13 +2765,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3003,13 +2789,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s">
-        <v>77</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3029,13 +2813,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G65" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3055,13 +2837,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3081,13 +2861,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>87</v>
-      </c>
-      <c r="G67" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3107,13 +2885,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3133,13 +2909,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3159,13 +2933,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>87</v>
-      </c>
-      <c r="G70" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3185,13 +2957,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3211,13 +2981,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>87</v>
-      </c>
-      <c r="G72" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>88</v>
-      </c>
-      <c r="H72" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3237,13 +3005,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3263,13 +3029,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>87</v>
-      </c>
-      <c r="G74" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3289,13 +3053,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3315,13 +3077,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>87</v>
-      </c>
-      <c r="G76" t="s">
-        <v>88</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3341,13 +3101,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3367,13 +3125,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3393,13 +3149,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3419,13 +3173,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3445,13 +3197,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>102</v>
-      </c>
-      <c r="G81" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3471,13 +3221,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3497,13 +3245,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>102</v>
-      </c>
-      <c r="G83" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3523,13 +3269,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>102</v>
-      </c>
-      <c r="G84" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3549,13 +3293,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>112</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3575,13 +3317,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3601,13 +3341,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>112</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3627,13 +3365,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3653,13 +3389,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>112</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3679,13 +3413,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3705,13 +3437,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>112</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3731,13 +3461,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>120</v>
-      </c>
-      <c r="G92" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3757,13 +3485,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3783,13 +3509,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>120</v>
-      </c>
-      <c r="G94" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3809,13 +3533,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3835,13 +3557,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>120</v>
-      </c>
-      <c r="G96" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3861,13 +3581,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3887,13 +3605,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3913,13 +3629,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3939,13 +3653,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" t="s">
-        <v>121</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3965,13 +3677,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3991,13 +3701,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4017,13 +3725,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4043,13 +3749,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4069,13 +3773,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4095,13 +3797,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>137</v>
-      </c>
-      <c r="G106" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4121,13 +3821,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>15</v>
-      </c>
-      <c r="G107" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4147,13 +3845,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>137</v>
-      </c>
-      <c r="G108" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4173,13 +3869,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>137</v>
-      </c>
-      <c r="G109" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4199,13 +3893,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4225,13 +3917,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>137</v>
-      </c>
-      <c r="G111" t="s">
-        <v>138</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4251,13 +3941,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>145</v>
-      </c>
-      <c r="G112" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4277,13 +3965,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G113" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4303,13 +3989,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>145</v>
-      </c>
-      <c r="G114" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4329,13 +4013,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>15</v>
-      </c>
-      <c r="G115" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4355,13 +4037,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>145</v>
-      </c>
-      <c r="G116" t="s">
-        <v>146</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4381,13 +4061,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
-      </c>
-      <c r="G117" t="s">
-        <v>153</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4407,13 +4085,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>15</v>
-      </c>
-      <c r="G118" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4433,13 +4109,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G119" t="s">
-        <v>153</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4459,13 +4133,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
-      </c>
-      <c r="G120" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4485,13 +4157,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>158</v>
-      </c>
-      <c r="G121" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4511,13 +4181,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
-      </c>
-      <c r="G122" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4537,13 +4205,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4563,13 +4229,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
-      </c>
-      <c r="G124" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4589,13 +4253,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>158</v>
-      </c>
-      <c r="G125" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4615,13 +4277,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
-      </c>
-      <c r="G126" t="s">
-        <v>159</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4641,13 +4301,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>166</v>
-      </c>
-      <c r="G127" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4667,13 +4325,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>15</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4693,13 +4349,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>166</v>
-      </c>
-      <c r="G129" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4719,13 +4373,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>15</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4745,13 +4397,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>166</v>
-      </c>
-      <c r="G131" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4771,13 +4421,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
-      </c>
-      <c r="G132" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4797,13 +4445,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>166</v>
-      </c>
-      <c r="G133" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4823,13 +4469,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>15</v>
-      </c>
-      <c r="G134" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4849,13 +4493,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>166</v>
-      </c>
-      <c r="G135" t="s">
-        <v>167</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4875,13 +4517,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>177</v>
-      </c>
-      <c r="G136" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4901,13 +4541,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>15</v>
-      </c>
-      <c r="G137" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4927,13 +4565,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>177</v>
-      </c>
-      <c r="G138" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4953,13 +4589,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>177</v>
-      </c>
-      <c r="G139" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4979,13 +4613,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G140" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5005,13 +4637,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5031,13 +4661,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>177</v>
-      </c>
-      <c r="G142" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5057,13 +4685,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5083,13 +4709,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>177</v>
-      </c>
-      <c r="G144" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5109,13 +4733,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>177</v>
-      </c>
-      <c r="G145" t="s">
-        <v>178</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5135,13 +4757,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>189</v>
-      </c>
-      <c r="G146" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5161,13 +4781,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>15</v>
-      </c>
-      <c r="G147" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5187,13 +4805,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
-      </c>
-      <c r="G148" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5213,13 +4829,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>15</v>
-      </c>
-      <c r="G149" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5239,13 +4853,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
-      </c>
-      <c r="G150" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5265,13 +4877,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>189</v>
-      </c>
-      <c r="G151" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5291,13 +4901,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
-      </c>
-      <c r="G152" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5317,13 +4925,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
-      </c>
-      <c r="G153" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5343,13 +4949,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5369,13 +4973,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>189</v>
-      </c>
-      <c r="G155" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5395,13 +4997,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5421,13 +5021,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
-      </c>
-      <c r="G157" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5447,13 +5045,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5473,13 +5069,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
-      </c>
-      <c r="G159" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5499,13 +5093,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5525,13 +5117,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
-      </c>
-      <c r="G161" t="s">
-        <v>190</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5551,13 +5141,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>207</v>
-      </c>
-      <c r="G162" t="s">
-        <v>208</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5577,13 +5165,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5603,13 +5189,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>207</v>
-      </c>
-      <c r="G164" t="s">
-        <v>208</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5629,13 +5213,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5655,13 +5237,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>207</v>
-      </c>
-      <c r="G166" t="s">
-        <v>208</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5681,13 +5261,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>214</v>
-      </c>
-      <c r="G167" t="s">
-        <v>215</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5707,13 +5285,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5733,13 +5309,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>214</v>
-      </c>
-      <c r="G169" t="s">
-        <v>215</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5759,13 +5333,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>219</v>
-      </c>
-      <c r="G170" t="s">
-        <v>220</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5785,13 +5357,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5811,13 +5381,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>219</v>
-      </c>
-      <c r="G172" t="s">
-        <v>220</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5837,13 +5405,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>224</v>
-      </c>
-      <c r="G173" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5863,13 +5429,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5889,13 +5453,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>224</v>
-      </c>
-      <c r="G175" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5915,13 +5477,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5941,13 +5501,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>224</v>
-      </c>
-      <c r="G177" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5967,13 +5525,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>224</v>
-      </c>
-      <c r="G178" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5993,13 +5549,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>224</v>
-      </c>
-      <c r="G179" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6019,13 +5573,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>224</v>
-      </c>
-      <c r="G180" t="s">
-        <v>225</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6045,13 +5597,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>234</v>
-      </c>
-      <c r="G181" t="s">
-        <v>235</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6071,13 +5621,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6097,13 +5645,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>234</v>
-      </c>
-      <c r="G183" t="s">
-        <v>235</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6123,13 +5669,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6149,13 +5693,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>234</v>
-      </c>
-      <c r="G185" t="s">
-        <v>235</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6175,13 +5717,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6201,13 +5741,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>234</v>
-      </c>
-      <c r="G187" t="s">
-        <v>235</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6227,13 +5765,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>234</v>
-      </c>
-      <c r="G188" t="s">
-        <v>235</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6253,13 +5789,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>244</v>
-      </c>
-      <c r="G189" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6279,13 +5813,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6305,13 +5837,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>244</v>
-      </c>
-      <c r="G191" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6331,13 +5861,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6357,13 +5885,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>244</v>
-      </c>
-      <c r="G193" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6383,13 +5909,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>15</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6409,13 +5933,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>244</v>
-      </c>
-      <c r="G195" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6435,13 +5957,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>15</v>
-      </c>
-      <c r="G196" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6461,13 +5981,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>244</v>
-      </c>
-      <c r="G197" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6487,13 +6005,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>15</v>
-      </c>
-      <c r="G198" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6513,13 +6029,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>244</v>
-      </c>
-      <c r="G199" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6539,13 +6053,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>15</v>
-      </c>
-      <c r="G200" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6565,13 +6077,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>244</v>
-      </c>
-      <c r="G201" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6591,13 +6101,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>15</v>
-      </c>
-      <c r="G202" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6617,13 +6125,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>244</v>
-      </c>
-      <c r="G203" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6643,13 +6149,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6669,13 +6173,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>244</v>
-      </c>
-      <c r="G205" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6695,13 +6197,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>15</v>
-      </c>
-      <c r="G206" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6721,13 +6221,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>244</v>
-      </c>
-      <c r="G207" t="s">
-        <v>245</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6747,13 +6245,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>265</v>
-      </c>
-      <c r="G208" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6773,13 +6269,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>15</v>
-      </c>
-      <c r="G209" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6799,13 +6293,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>265</v>
-      </c>
-      <c r="G210" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6825,13 +6317,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>15</v>
-      </c>
-      <c r="G211" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6851,13 +6341,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>265</v>
-      </c>
-      <c r="G212" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6877,13 +6365,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>15</v>
-      </c>
-      <c r="G213" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6903,13 +6389,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>265</v>
-      </c>
-      <c r="G214" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6929,13 +6413,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>15</v>
-      </c>
-      <c r="G215" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6955,13 +6437,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>265</v>
-      </c>
-      <c r="G216" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6981,13 +6461,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>15</v>
-      </c>
-      <c r="G217" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7007,13 +6485,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>265</v>
-      </c>
-      <c r="G218" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7033,13 +6509,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>15</v>
-      </c>
-      <c r="G219" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7059,13 +6533,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>265</v>
-      </c>
-      <c r="G220" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7085,13 +6557,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>15</v>
-      </c>
-      <c r="G221" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7111,13 +6581,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>265</v>
-      </c>
-      <c r="G222" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7137,13 +6605,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>15</v>
-      </c>
-      <c r="G223" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7163,13 +6629,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>265</v>
-      </c>
-      <c r="G224" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7189,13 +6653,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>15</v>
-      </c>
-      <c r="G225" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7215,13 +6677,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>265</v>
-      </c>
-      <c r="G226" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7241,13 +6701,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>15</v>
-      </c>
-      <c r="G227" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7267,13 +6725,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>265</v>
-      </c>
-      <c r="G228" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7293,13 +6749,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>15</v>
-      </c>
-      <c r="G229" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7319,13 +6773,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>265</v>
-      </c>
-      <c r="G230" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7345,13 +6797,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>15</v>
-      </c>
-      <c r="G231" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7371,13 +6821,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>265</v>
-      </c>
-      <c r="G232" t="s">
-        <v>266</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7397,13 +6845,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>15</v>
-      </c>
-      <c r="G233" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7423,13 +6869,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>265</v>
-      </c>
-      <c r="G234" t="s">
+        <v>239</v>
+      </c>
+      <c r="G234" t="s"/>
+      <c r="H234" t="s">
         <v>266</v>
-      </c>
-      <c r="H234" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7449,13 +6893,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>15</v>
-      </c>
-      <c r="G235" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7475,13 +6917,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>295</v>
-      </c>
-      <c r="G236" t="s">
-        <v>296</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7501,13 +6941,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>15</v>
-      </c>
-      <c r="G237" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7527,13 +6965,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>295</v>
-      </c>
-      <c r="G238" t="s">
-        <v>296</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7553,13 +6989,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>300</v>
-      </c>
-      <c r="G239" t="s">
-        <v>301</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7579,13 +7013,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>15</v>
-      </c>
-      <c r="G240" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7605,13 +7037,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>300</v>
-      </c>
-      <c r="G241" t="s">
-        <v>301</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7631,13 +7061,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>15</v>
-      </c>
-      <c r="G242" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7657,13 +7085,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>300</v>
-      </c>
-      <c r="G243" t="s">
-        <v>301</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7683,13 +7109,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>15</v>
-      </c>
-      <c r="G244" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7709,13 +7133,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>300</v>
-      </c>
-      <c r="G245" t="s">
-        <v>301</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7735,13 +7157,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>309</v>
-      </c>
-      <c r="G246" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7761,13 +7181,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>15</v>
-      </c>
-      <c r="G247" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7787,13 +7205,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>309</v>
-      </c>
-      <c r="G248" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7813,13 +7229,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>15</v>
-      </c>
-      <c r="G249" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7839,13 +7253,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>309</v>
-      </c>
-      <c r="G250" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7865,13 +7277,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>15</v>
-      </c>
-      <c r="G251" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7891,13 +7301,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>309</v>
-      </c>
-      <c r="G252" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7917,13 +7325,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>309</v>
-      </c>
-      <c r="G253" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7943,13 +7349,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>15</v>
-      </c>
-      <c r="G254" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7969,13 +7373,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>309</v>
-      </c>
-      <c r="G255" t="s">
-        <v>310</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>320</v>
+        <v>290</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7995,13 +7397,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>15</v>
-      </c>
-      <c r="G256" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8021,13 +7421,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>15</v>
-      </c>
-      <c r="G257" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8047,13 +7445,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>15</v>
-      </c>
-      <c r="G258" t="s">
-        <v>90</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8073,13 +7469,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>15</v>
-      </c>
-      <c r="G259" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8099,13 +7493,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>15</v>
-      </c>
-      <c r="G260" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8125,13 +7517,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>15</v>
-      </c>
-      <c r="G261" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
